--- a/container/src/data/all_sequences.xlsx
+++ b/container/src/data/all_sequences.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Maria\Maria_scripts\HDR_flask\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Maria\Maria_scripts\HDR_flask\container\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="187">
   <si>
     <t>Elements</t>
   </si>
@@ -564,6 +564,27 @@
   </si>
   <si>
     <t>5utr-design_10</t>
+  </si>
+  <si>
+    <t>promoter</t>
+  </si>
+  <si>
+    <t>SFFV</t>
+  </si>
+  <si>
+    <t>gtaacgccattttgcaaggcatggaaaaataccaaaccaagaatagagaagttcagatcaagggcgggtacatgaaaatagctaacgttgggccaaacaggatatctgcggtgagcagtttcggccccggcccggggccaagaacagatggtcaccgcagtttcggccccggcccgaggccaagaacagatggtccccagatatggcccaaccctcagcagtttcttaagacccatcagatgtttccaggctcccccaaggacctgaaatgaccctgcgccttatttgaattaaccaatcagcctgcttctcgcttctgttcgcgcgcttctgcttcccgagctctataaaagagctcacaacccctcactcggcgcgccagtcctccgacagactgagtcgcccggg</t>
+  </si>
+  <si>
+    <t>regulatory</t>
+  </si>
+  <si>
+    <t>WPRE</t>
+  </si>
+  <si>
+    <t>gcggggaggcggcccaaagggagatccgactcgtctgagggcgaaggcgaagacgcggaagaggccgcagagccggcagcaggccgcgggaaggaaggtccgctggattgagggccgaagggacgtagcagaaggacgtcccgcgcagaatccaggtggcaacacaggcgagcagccaaggaaaggacgatgatttccccgacaacaccacggaattgtcagtgcccaacagccgagcccctgtccagcagcgggcaaggcaggcggcgatgagttccgccgtggcaatagggagggggaaagcgaaagtcccggaaaggagctgacaggtggtggcaatgccccaaccagtgggggttgcgtcagcaaacacagtgcacaccacgccacgttgcctgacaacgggccacaactcctcataaagagacagcaaccaggatttatacaaggaggagaaaatgaaagccatacgggaagcaatagcatgatacaaaggcattaaagcagcgtatccacatagcgtaaaaggagcaacatagttaagaataccagtcaatctttcacaaattttgtaatccagaggttgatt</t>
+  </si>
+  <si>
+    <t>The woodchuck hepatitis virus post-transcriptional regulatory element</t>
   </si>
 </sst>
 </file>
@@ -913,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1212,7 +1233,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s">
         <v>45</v>
@@ -2051,6 +2072,37 @@
         <v>159</v>
       </c>
       <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>180</v>
+      </c>
+      <c r="B74" t="s">
+        <v>181</v>
+      </c>
+      <c r="C74" t="s">
+        <v>182</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>183</v>
+      </c>
+      <c r="B75" t="s">
+        <v>184</v>
+      </c>
+      <c r="C75" t="s">
+        <v>185</v>
+      </c>
+      <c r="D75" t="s">
+        <v>186</v>
+      </c>
+      <c r="E75">
         <v>0</v>
       </c>
     </row>

--- a/container/src/data/all_sequences.xlsx
+++ b/container/src/data/all_sequences.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="186">
   <si>
     <t>Elements</t>
   </si>
@@ -564,9 +564,6 @@
   </si>
   <si>
     <t>5utr-design_10</t>
-  </si>
-  <si>
-    <t>promoter</t>
   </si>
   <si>
     <t>SFFV</t>
@@ -936,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -967,69 +964,69 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
+        <v>160</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1037,13 +1034,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1051,13 +1048,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1065,13 +1062,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1079,13 +1076,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>164</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1093,13 +1090,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1107,55 +1104,55 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>168</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
+        <v>169</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1163,13 +1160,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>149</v>
+      </c>
+      <c r="D16" t="s">
+        <v>159</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1177,13 +1177,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>150</v>
+      </c>
+      <c r="D17" t="s">
+        <v>159</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1191,13 +1194,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>151</v>
+      </c>
+      <c r="D18" t="s">
+        <v>159</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1205,44 +1211,50 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>152</v>
+      </c>
+      <c r="D19" t="s">
+        <v>159</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>153</v>
+      </c>
+      <c r="D20" t="s">
+        <v>159</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1250,13 +1262,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>176</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>155</v>
+      </c>
+      <c r="D22" t="s">
+        <v>159</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1264,13 +1279,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>177</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>156</v>
+      </c>
+      <c r="D23" t="s">
+        <v>159</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1278,13 +1296,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>157</v>
+      </c>
+      <c r="D24" t="s">
+        <v>159</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1292,13 +1313,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>49</v>
+        <v>179</v>
+      </c>
+      <c r="C25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" t="s">
+        <v>159</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1306,13 +1330,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1320,13 +1344,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1334,194 +1358,167 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" t="s">
-        <v>56</v>
+        <v>5</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" t="s">
-        <v>58</v>
+        <v>7</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" t="s">
-        <v>62</v>
+        <v>9</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>74</v>
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>75</v>
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>78</v>
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>81</v>
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>84</v>
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>87</v>
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>92</v>
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" t="s">
+        <v>181</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>95</v>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>44</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1532,13 +1529,13 @@
         <v>67</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1549,13 +1546,13 @@
         <v>67</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1566,13 +1563,13 @@
         <v>67</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1583,13 +1580,13 @@
         <v>67</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1600,13 +1597,13 @@
         <v>67</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1617,13 +1614,13 @@
         <v>67</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -1634,13 +1631,13 @@
         <v>67</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1651,13 +1648,13 @@
         <v>67</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -1668,13 +1665,13 @@
         <v>67</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1685,13 +1682,13 @@
         <v>67</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -1702,13 +1699,13 @@
         <v>67</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -1719,13 +1716,13 @@
         <v>67</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -1736,13 +1733,13 @@
         <v>67</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -1753,13 +1750,13 @@
         <v>67</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -1767,125 +1764,152 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>138</v>
-      </c>
-      <c r="B54" t="s">
-        <v>160</v>
+        <v>67</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>139</v>
+        <v>115</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>138</v>
-      </c>
-      <c r="B55" t="s">
-        <v>161</v>
+        <v>67</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>140</v>
+        <v>118</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>138</v>
-      </c>
-      <c r="B56" t="s">
-        <v>162</v>
+        <v>67</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>141</v>
+        <v>121</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>138</v>
-      </c>
-      <c r="B57" t="s">
-        <v>163</v>
+        <v>67</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>142</v>
+        <v>124</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>138</v>
-      </c>
-      <c r="B58" t="s">
-        <v>164</v>
+        <v>67</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>143</v>
+        <v>127</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>138</v>
-      </c>
-      <c r="B59" t="s">
-        <v>165</v>
+        <v>67</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>144</v>
+        <v>130</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>138</v>
-      </c>
-      <c r="B60" t="s">
-        <v>166</v>
+        <v>67</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>145</v>
+        <v>133</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>138</v>
-      </c>
-      <c r="B61" t="s">
-        <v>167</v>
+        <v>67</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>146</v>
+        <v>136</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="B62" t="s">
-        <v>168</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>147</v>
+        <v>45</v>
+      </c>
+      <c r="C62" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" t="s">
+        <v>46</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1893,13 +1917,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="B63" t="s">
-        <v>169</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>148</v>
+        <v>183</v>
+      </c>
+      <c r="C63" t="s">
+        <v>184</v>
+      </c>
+      <c r="D63" t="s">
+        <v>185</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1907,67 +1934,55 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>170</v>
-      </c>
-      <c r="C64" t="s">
-        <v>149</v>
-      </c>
-      <c r="D64" t="s">
-        <v>159</v>
+        <v>26</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>171</v>
-      </c>
-      <c r="C65" t="s">
-        <v>150</v>
-      </c>
-      <c r="D65" t="s">
-        <v>159</v>
+        <v>28</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>172</v>
-      </c>
-      <c r="C66" t="s">
-        <v>151</v>
-      </c>
-      <c r="D66" t="s">
-        <v>159</v>
+        <v>30</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="B67" t="s">
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>152</v>
-      </c>
-      <c r="D67" t="s">
-        <v>159</v>
+        <v>68</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1975,16 +1990,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="B68" t="s">
-        <v>174</v>
+        <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>153</v>
-      </c>
-      <c r="D68" t="s">
-        <v>159</v>
+        <v>69</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1992,16 +2004,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="B69" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>154</v>
-      </c>
-      <c r="D69" t="s">
-        <v>159</v>
+        <v>70</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2009,16 +2018,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="B70" t="s">
-        <v>176</v>
-      </c>
-      <c r="C70" t="s">
-        <v>155</v>
-      </c>
-      <c r="D70" t="s">
-        <v>159</v>
+        <v>48</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2026,16 +2032,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="B71" t="s">
-        <v>177</v>
+        <v>33</v>
       </c>
       <c r="C71" t="s">
-        <v>156</v>
-      </c>
-      <c r="D71" t="s">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2043,16 +2046,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="B72" t="s">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c r="C72" t="s">
-        <v>157</v>
-      </c>
-      <c r="D72" t="s">
-        <v>159</v>
+        <v>36</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2060,16 +2060,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="B73" t="s">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="C73" t="s">
-        <v>158</v>
-      </c>
-      <c r="D73" t="s">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2077,13 +2074,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="B74" t="s">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="C74" t="s">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2091,22 +2088,25 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>183</v>
+        <v>59</v>
       </c>
       <c r="B75" t="s">
-        <v>184</v>
+        <v>60</v>
       </c>
       <c r="C75" t="s">
-        <v>185</v>
+        <v>61</v>
       </c>
       <c r="D75" t="s">
-        <v>186</v>
+        <v>62</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:E75">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
